--- a/data_craw/quarter/income_statement_quarter/tpb.xlsx
+++ b/data_craw/quarter/income_statement_quarter/tpb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35896000000</v>
+        <v>110289000000</v>
       </c>
       <c r="C4" t="n">
-        <v>929849000000</v>
+        <v>462379000000</v>
       </c>
       <c r="D4" t="n">
-        <v>413936000000</v>
+        <v>142259000000</v>
       </c>
       <c r="E4" t="n">
-        <v>110032000000</v>
+        <v>59155000000</v>
       </c>
       <c r="F4" t="n">
-        <v>110289000000</v>
+        <v>106005000000</v>
       </c>
       <c r="G4" t="n">
-        <v>462379000000</v>
+        <v>188342000000</v>
       </c>
       <c r="H4" t="n">
-        <v>142259000000</v>
+        <v>275189000000</v>
       </c>
       <c r="I4" t="n">
-        <v>59155000000</v>
+        <v>362916000000</v>
       </c>
       <c r="J4" t="n">
-        <v>106005000000</v>
+        <v>362283000000</v>
       </c>
       <c r="K4" t="n">
-        <v>188342000000</v>
+        <v>324561000000</v>
       </c>
       <c r="L4" t="n">
-        <v>275189000000</v>
+        <v>185811000000</v>
       </c>
       <c r="M4" t="n">
-        <v>362916000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>362283000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>324561000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>185811000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>169226000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29006000000</v>
+        <v>128180000000</v>
       </c>
       <c r="C5" t="n">
-        <v>49675000000</v>
+        <v>130687000000</v>
       </c>
       <c r="D5" t="n">
-        <v>108424000000</v>
+        <v>157883000000</v>
       </c>
       <c r="E5" t="n">
-        <v>35064000000</v>
+        <v>2447000000</v>
       </c>
       <c r="F5" t="n">
-        <v>128180000000</v>
+        <v>4411000000</v>
       </c>
       <c r="G5" t="n">
-        <v>130687000000</v>
+        <v>85243000000</v>
       </c>
       <c r="H5" t="n">
-        <v>157883000000</v>
+        <v>115059000000</v>
       </c>
       <c r="I5" t="n">
-        <v>2447000000</v>
+        <v>144854000000</v>
       </c>
       <c r="J5" t="n">
-        <v>4411000000</v>
+        <v>147247000000</v>
       </c>
       <c r="K5" t="n">
-        <v>85243000000</v>
+        <v>215648000000</v>
       </c>
       <c r="L5" t="n">
-        <v>115059000000</v>
+        <v>144565000000</v>
       </c>
       <c r="M5" t="n">
-        <v>144854000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>147247000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>215648000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>144565000000</v>
-      </c>
-      <c r="Q5" t="n">
         <v>184969000000</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +690,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627342000000</v>
+        <v>791509000000</v>
       </c>
       <c r="C7" t="n">
-        <v>1171246000000</v>
+        <v>1090578000000</v>
       </c>
       <c r="D7" t="n">
-        <v>809289000000</v>
+        <v>1138029000000</v>
       </c>
       <c r="E7" t="n">
-        <v>818718000000</v>
+        <v>1268915000000</v>
       </c>
       <c r="F7" t="n">
-        <v>791509000000</v>
+        <v>1109879000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1090578000000</v>
+        <v>1315133000000</v>
       </c>
       <c r="H7" t="n">
-        <v>1138029000000</v>
+        <v>1299400000000</v>
       </c>
       <c r="I7" t="n">
-        <v>1268915000000</v>
+        <v>1731843000000</v>
       </c>
       <c r="J7" t="n">
-        <v>1109879000000</v>
+        <v>1711622000000</v>
       </c>
       <c r="K7" t="n">
-        <v>1315133000000</v>
+        <v>1519328000000</v>
       </c>
       <c r="L7" t="n">
-        <v>1299400000000</v>
+        <v>1413242000000</v>
       </c>
       <c r="M7" t="n">
-        <v>1731843000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1711622000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1519328000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1413242000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>1293167000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
